--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.9083654939295</v>
+        <v>357.4099159889433</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.0809831466962</v>
+        <v>489.0240148687304</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.1757103692051</v>
+        <v>442.3522492391735</v>
       </c>
       <c r="AD2" t="n">
-        <v>320908.3654939295</v>
+        <v>357409.9159889434</v>
       </c>
       <c r="AE2" t="n">
-        <v>439080.9831466962</v>
+        <v>489024.0148687304</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.493339927380186e-06</v>
+        <v>4.613331658023459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.095377604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>397175.7103692051</v>
+        <v>442352.2492391735</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.3941998441149</v>
+        <v>177.7854010714709</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.8807115011107</v>
+        <v>243.2538290842159</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.8499909649334</v>
+        <v>220.0380250453822</v>
       </c>
       <c r="AD3" t="n">
-        <v>153394.1998441149</v>
+        <v>177785.4010714709</v>
       </c>
       <c r="AE3" t="n">
-        <v>209880.7115011108</v>
+        <v>243253.8290842159</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.861619149838775e-06</v>
+        <v>7.145006454815587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.935546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>189849.9909649334</v>
+        <v>220038.0250453822</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.795468445566</v>
+        <v>151.0160774723298</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.4871537484233</v>
+        <v>206.6268595566816</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.9297832854717</v>
+        <v>186.9066820832695</v>
       </c>
       <c r="AD4" t="n">
-        <v>126795.468445566</v>
+        <v>151016.0774723298</v>
       </c>
       <c r="AE4" t="n">
-        <v>173487.1537484233</v>
+        <v>206626.8595566816</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.384935768186124e-06</v>
+        <v>8.113279210599953e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.465169270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>156929.7832854717</v>
+        <v>186906.6820832695</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.967737208516</v>
+        <v>147.1883462352798</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.24988300231</v>
+        <v>201.3895888105683</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.1923503088101</v>
+        <v>182.169249106608</v>
       </c>
       <c r="AD5" t="n">
-        <v>122967.737208516</v>
+        <v>147188.3462352798</v>
       </c>
       <c r="AE5" t="n">
-        <v>168249.88300231</v>
+        <v>201389.5888105683</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.463363236413023e-06</v>
+        <v>8.258390560262551e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.404947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>152192.3503088101</v>
+        <v>182169.249106608</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.4154912410908</v>
+        <v>250.943005015076</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.1599079793052</v>
+        <v>343.3512902855077</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.4632430775262</v>
+        <v>310.5823250373238</v>
       </c>
       <c r="AD2" t="n">
-        <v>227415.4912410908</v>
+        <v>250943.0050150761</v>
       </c>
       <c r="AE2" t="n">
-        <v>311159.9079793052</v>
+        <v>343351.2902855077</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.072106305726402e-06</v>
+        <v>5.85590874424952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>281463.2430775262</v>
+        <v>310582.3250373238</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.6203698564932</v>
+        <v>148.1477941219273</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.511087900278</v>
+        <v>202.7023477369322</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.2377489849378</v>
+        <v>183.3567201635088</v>
       </c>
       <c r="AD3" t="n">
-        <v>124620.3698564932</v>
+        <v>148147.7941219273</v>
       </c>
       <c r="AE3" t="n">
-        <v>170511.087900278</v>
+        <v>202702.3477369322</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.361044547305893e-06</v>
+        <v>8.312823957630533e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.605143229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>154237.7489849378</v>
+        <v>183356.7201635088</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.0013668530104</v>
+        <v>139.3581989178523</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.7181877473425</v>
+        <v>190.6760358091498</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.5703466711554</v>
+        <v>172.4781825670754</v>
       </c>
       <c r="AD4" t="n">
-        <v>116001.3668530104</v>
+        <v>139358.1989178523</v>
       </c>
       <c r="AE4" t="n">
-        <v>158718.1877473425</v>
+        <v>190676.0358091498</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.555954803694607e-06</v>
+        <v>8.684352987274808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.450520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>143570.3466711554</v>
+        <v>172478.1825670754</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0253959546721</v>
+        <v>121.9522809370536</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.2274036710397</v>
+        <v>166.8604909329269</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.0351742680923</v>
+        <v>150.9355598685045</v>
       </c>
       <c r="AD2" t="n">
-        <v>101025.3959546721</v>
+        <v>121952.2809370536</v>
       </c>
       <c r="AE2" t="n">
-        <v>138227.4036710397</v>
+        <v>166860.4909329269</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.614957372273251e-06</v>
+        <v>9.828651455056175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.800455729166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>125035.1742680923</v>
+        <v>150935.5598685045</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.7431055510216</v>
+        <v>142.686697643422</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.2060438247056</v>
+        <v>195.230234608472</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.4390108702602</v>
+        <v>176.5977350248499</v>
       </c>
       <c r="AD2" t="n">
-        <v>120743.1055510216</v>
+        <v>142686.697643422</v>
       </c>
       <c r="AE2" t="n">
-        <v>165206.0438247056</v>
+        <v>195230.234608472</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243312392828256e-06</v>
+        <v>8.615391204888397e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.955078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>149439.0108702602</v>
+        <v>176597.7350248499</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.6118410006172</v>
+        <v>127.5554330930176</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.5027801225737</v>
+        <v>174.5269709063401</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.71163759864</v>
+        <v>157.8703617532298</v>
       </c>
       <c r="AD3" t="n">
-        <v>105611.8410006172</v>
+        <v>127555.4330930176</v>
       </c>
       <c r="AE3" t="n">
-        <v>144502.7801225737</v>
+        <v>174526.9709063401</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.663880276447414e-06</v>
+        <v>9.469289412268783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5986328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>130711.63759864</v>
+        <v>157870.3617532298</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.6812921641546</v>
+        <v>129.6890174121207</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.0707827360373</v>
+        <v>177.4462350988325</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.7482378574172</v>
+        <v>160.5110154684046</v>
       </c>
       <c r="AD2" t="n">
-        <v>109681.2921641546</v>
+        <v>129689.0174121207</v>
       </c>
       <c r="AE2" t="n">
-        <v>150070.7827360373</v>
+        <v>177446.2350988325</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.45251777250988e-06</v>
+        <v>9.914887395615098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.091796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>135748.2378574172</v>
+        <v>160511.0154684046</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8730019837842</v>
+        <v>280.3341007659706</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.0460443484644</v>
+        <v>383.5654841356757</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.0697201160233</v>
+        <v>346.9585326673042</v>
       </c>
       <c r="AD2" t="n">
-        <v>244873.0019837842</v>
+        <v>280334.1007659706</v>
       </c>
       <c r="AE2" t="n">
-        <v>335046.0443484643</v>
+        <v>383565.4841356757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.919406066392119e-06</v>
+        <v>5.519906924291304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3369140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>303069.7201160233</v>
+        <v>346958.5326673042</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.0646377433404</v>
+        <v>155.8190983985237</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.6966636409779</v>
+        <v>213.1985646822253</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.4512276724938</v>
+        <v>192.8511928950796</v>
       </c>
       <c r="AD3" t="n">
-        <v>132064.6377433404</v>
+        <v>155819.0983985238</v>
       </c>
       <c r="AE3" t="n">
-        <v>180696.6636409779</v>
+        <v>213198.5646822253</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.217632442735605e-06</v>
+        <v>7.974546190329434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.693033854166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>163451.2276724938</v>
+        <v>192851.1928950796</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>117.4271111884229</v>
+        <v>141.010979643014</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.6689540464538</v>
+        <v>192.9374433128544</v>
       </c>
       <c r="AC4" t="n">
-        <v>145.3349345725978</v>
+        <v>174.5237645125325</v>
       </c>
       <c r="AD4" t="n">
-        <v>117427.1111884229</v>
+        <v>141010.979643014</v>
       </c>
       <c r="AE4" t="n">
-        <v>160668.9540464538</v>
+        <v>192937.4433128544</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.537139900100094e-06</v>
+        <v>8.578659282568264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.434244791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>145334.9345725978</v>
+        <v>174523.7645125325</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.935665158187</v>
+        <v>129.4495917817637</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4188270886168</v>
+        <v>177.1186423886648</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0630653454699</v>
+        <v>160.214687746716</v>
       </c>
       <c r="AD2" t="n">
-        <v>109935.665158187</v>
+        <v>129449.5917817637</v>
       </c>
       <c r="AE2" t="n">
-        <v>150418.8270886168</v>
+        <v>177118.6423886648</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.273912824177324e-06</v>
+        <v>9.798230425347494e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.361979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136063.0653454699</v>
+        <v>160214.687746716</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.6512231087533</v>
+        <v>193.5271452966386</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.492532057912</v>
+        <v>264.7923780098211</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.2083325071993</v>
+        <v>239.5209650910778</v>
       </c>
       <c r="AD2" t="n">
-        <v>170651.2231087533</v>
+        <v>193527.1452966386</v>
       </c>
       <c r="AE2" t="n">
-        <v>233492.532057912</v>
+        <v>264792.3780098211</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.585068323095039e-06</v>
+        <v>7.026684367858017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.518229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>211208.3325071993</v>
+        <v>239520.9650910778</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.9423869518189</v>
+        <v>132.5623760845405</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.4280241432086</v>
+        <v>181.3776911980733</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.0713846460797</v>
+        <v>164.0672589153684</v>
       </c>
       <c r="AD3" t="n">
-        <v>109942.3869518189</v>
+        <v>132562.3760845404</v>
       </c>
       <c r="AE3" t="n">
-        <v>150428.0241432086</v>
+        <v>181377.6911980733</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640905077329158e-06</v>
+        <v>9.096109814562441e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.489583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136071.3846460797</v>
+        <v>164067.2589153684</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.440156653585</v>
+        <v>234.2924475970266</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.8828210120412</v>
+        <v>320.5692630553941</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.8392675681767</v>
+        <v>289.9745825112689</v>
       </c>
       <c r="AD2" t="n">
-        <v>199440.156653585</v>
+        <v>234292.4475970267</v>
       </c>
       <c r="AE2" t="n">
-        <v>272882.8210120412</v>
+        <v>320569.2630553941</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.234475884590387e-06</v>
+        <v>6.218936749491471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.9072265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>246839.2675681767</v>
+        <v>289974.5825112689</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5616801202355</v>
+        <v>140.8534346522444</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.853077195722</v>
+        <v>192.721883306089</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5014852669184</v>
+        <v>174.3287772502723</v>
       </c>
       <c r="AD3" t="n">
-        <v>117561.6801202355</v>
+        <v>140853.4346522444</v>
       </c>
       <c r="AE3" t="n">
-        <v>160853.077195722</v>
+        <v>192721.883306089</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.499190764131637e-06</v>
+        <v>8.650607945272795e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.527018229166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>145501.4852669184</v>
+        <v>174328.7772502723</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.987773957322</v>
+        <v>137.1089362887386</v>
       </c>
       <c r="AB4" t="n">
-        <v>155.9631011140141</v>
+        <v>187.5984954495341</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.0782016393225</v>
+        <v>169.6943583400254</v>
       </c>
       <c r="AD4" t="n">
-        <v>113987.773957322</v>
+        <v>137108.9362887386</v>
       </c>
       <c r="AE4" t="n">
-        <v>155963.101114014</v>
+        <v>187598.4954495341</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.591233848418658e-06</v>
+        <v>8.827579467038084e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.45703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>141078.2016393225</v>
+        <v>169694.3583400254</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.3209877171579</v>
+        <v>321.5995540352666</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.3887628682153</v>
+        <v>440.02669780204</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.130607254142</v>
+        <v>398.0311673451617</v>
       </c>
       <c r="AD2" t="n">
-        <v>285320.9877171579</v>
+        <v>321599.5540352666</v>
       </c>
       <c r="AE2" t="n">
-        <v>390388.7628682153</v>
+        <v>440026.69780204</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.629500596403878e-06</v>
+        <v>4.898560172882661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.8251953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>353130.6072541421</v>
+        <v>398031.1673451617</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.4156306318602</v>
+        <v>170.6013415105989</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.3323252321636</v>
+        <v>233.4242818546964</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.2128892802471</v>
+        <v>211.1465960075888</v>
       </c>
       <c r="AD3" t="n">
-        <v>146415.6306318602</v>
+        <v>170601.3415105989</v>
       </c>
       <c r="AE3" t="n">
-        <v>200332.3252321636</v>
+        <v>233424.2818546964</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.971825829278198e-06</v>
+        <v>7.399210271158444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.857421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>181212.8892802472</v>
+        <v>211146.5960075888</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.9984863659756</v>
+        <v>146.0136050441222</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.9237112392177</v>
+        <v>199.7822560869036</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.9927465174931</v>
+        <v>180.7153179621837</v>
       </c>
       <c r="AD4" t="n">
-        <v>121998.4863659756</v>
+        <v>146013.6050441222</v>
       </c>
       <c r="AE4" t="n">
-        <v>166923.7112392177</v>
+        <v>199782.2560869036</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.47156269996197e-06</v>
+        <v>8.330182157987612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.426106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>150992.7465174931</v>
+        <v>180715.3179621837</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.0861569589727</v>
+        <v>145.1012756371193</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.6754218954241</v>
+        <v>198.5339667431101</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.8635921566857</v>
+        <v>179.5861636013763</v>
       </c>
       <c r="AD5" t="n">
-        <v>121086.1569589727</v>
+        <v>145101.2756371193</v>
       </c>
       <c r="AE5" t="n">
-        <v>165675.4218954241</v>
+        <v>198533.9667431101</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.492267429067512e-06</v>
+        <v>8.368753497931569e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>149863.5921566857</v>
+        <v>179586.1636013763</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.565579801251</v>
+        <v>166.7212954334483</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.8010040672431</v>
+        <v>228.1154316363895</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.9231538545743</v>
+        <v>206.3444150030973</v>
       </c>
       <c r="AD2" t="n">
-        <v>144565.579801251</v>
+        <v>166721.2954334482</v>
       </c>
       <c r="AE2" t="n">
-        <v>197801.0040672431</v>
+        <v>228115.4316363895</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.996858517197013e-06</v>
+        <v>8.011692325888184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.1455078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>178923.1538545743</v>
+        <v>206344.4150030973</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.9618324118745</v>
+        <v>129.2027993900923</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.3498979288727</v>
+        <v>176.7809701506683</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.3824690739526</v>
+        <v>159.9092424731878</v>
       </c>
       <c r="AD3" t="n">
-        <v>106961.8324118745</v>
+        <v>129202.7993900923</v>
       </c>
       <c r="AE3" t="n">
-        <v>146349.8979288727</v>
+        <v>176780.9701506683</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.66629362904158e-06</v>
+        <v>9.353573236900891e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.551432291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>132382.4690739526</v>
+        <v>159909.2424731878</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7576155842163</v>
+        <v>124.0481135979601</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.5975029883174</v>
+        <v>169.7281016411891</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.1790746329851</v>
+        <v>153.5294898354879</v>
       </c>
       <c r="AD2" t="n">
-        <v>102757.6155842163</v>
+        <v>124048.1135979601</v>
       </c>
       <c r="AE2" t="n">
-        <v>140597.5029883175</v>
+        <v>169728.1016411891</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.631328306438101e-06</v>
+        <v>9.689028450693441e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.727213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127179.0746329851</v>
+        <v>153529.4898354879</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9863221034113</v>
+        <v>124.2768201171551</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.9104293376995</v>
+        <v>170.0410279905711</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.4621357307771</v>
+        <v>153.8125509332799</v>
       </c>
       <c r="AD3" t="n">
-        <v>102986.3221034113</v>
+        <v>124276.8201171551</v>
       </c>
       <c r="AE3" t="n">
-        <v>140910.4293376995</v>
+        <v>170041.0279905711</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.640131096797961e-06</v>
+        <v>9.70744443863444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.720703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>127462.1357307771</v>
+        <v>153812.5509332799</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.1524627219926</v>
+        <v>120.6832331277803</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.033017910992</v>
+        <v>165.1241237338421</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.9547790086522</v>
+        <v>149.3649091178931</v>
       </c>
       <c r="AD2" t="n">
-        <v>100152.4627219926</v>
+        <v>120683.2331277803</v>
       </c>
       <c r="AE2" t="n">
-        <v>137033.017910992</v>
+        <v>165124.1237338421</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550627009177822e-06</v>
+        <v>9.892406780367509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.924153645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123954.7790086522</v>
+        <v>149364.9091178931</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.451125499261</v>
+        <v>139.9029166678107</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.4923467846649</v>
+        <v>191.4213426658936</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.9386912319311</v>
+        <v>173.1523583834565</v>
       </c>
       <c r="AD2" t="n">
-        <v>111451.125499261</v>
+        <v>139902.9166678107</v>
       </c>
       <c r="AE2" t="n">
-        <v>152492.3467846649</v>
+        <v>191421.3426658936</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.977032182700331e-06</v>
+        <v>9.459478281351734e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8193359375</v>
       </c>
       <c r="AH2" t="n">
-        <v>137938.6912319311</v>
+        <v>173152.3583834565</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.1838969394641</v>
+        <v>218.6683249883528</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.0085334125151</v>
+        <v>299.1916492145752</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.9571926798961</v>
+        <v>270.6372181317415</v>
       </c>
       <c r="AD2" t="n">
-        <v>184183.8969394641</v>
+        <v>218668.3249883528</v>
       </c>
       <c r="AE2" t="n">
-        <v>252008.5334125151</v>
+        <v>299191.6492145752</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409753324946405e-06</v>
+        <v>6.616892952680086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.700520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227957.1926798961</v>
+        <v>270637.2181317415</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.583491719897</v>
+        <v>135.4594121216116</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.0417002042102</v>
+        <v>185.3415437122018</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.3401765356466</v>
+        <v>167.6528069088517</v>
       </c>
       <c r="AD3" t="n">
-        <v>112583.491719897</v>
+        <v>135459.4121216116</v>
       </c>
       <c r="AE3" t="n">
-        <v>154041.7002042102</v>
+        <v>185341.5437122018</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.598267776319059e-06</v>
+        <v>8.923298181442424e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.486328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>139340.1765356466</v>
+        <v>167652.8069088517</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.1450617594366</v>
+        <v>135.0209821611512</v>
       </c>
       <c r="AB4" t="n">
-        <v>153.4418209901438</v>
+        <v>184.7416644981354</v>
       </c>
       <c r="AC4" t="n">
-        <v>138.7975489518348</v>
+        <v>167.1101793250399</v>
       </c>
       <c r="AD4" t="n">
-        <v>112145.0617594366</v>
+        <v>135020.9821611512</v>
       </c>
       <c r="AE4" t="n">
-        <v>153441.8209901438</v>
+        <v>184741.6644981354</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621606737705695e-06</v>
+        <v>8.968589261003007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.468424479166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>138797.5489518348</v>
+        <v>167110.1793250399</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.3446445915503</v>
+        <v>300.3051367039238</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.6880047928125</v>
+        <v>410.8907365659068</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.1690092476887</v>
+        <v>371.6759013568266</v>
       </c>
       <c r="AD2" t="n">
-        <v>264344.6445915503</v>
+        <v>300305.1367039238</v>
       </c>
       <c r="AE2" t="n">
-        <v>361688.0047928125</v>
+        <v>410890.7365659068</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.769801525830854e-06</v>
+        <v>5.197234059617987e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.576171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>327169.0092476887</v>
+        <v>371675.9013568266</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.5940470754802</v>
+        <v>163.5677084837288</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.9987336633025</v>
+        <v>223.8005548453485</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.7700825909371</v>
+        <v>202.4413439970242</v>
       </c>
       <c r="AD3" t="n">
-        <v>139594.0470754802</v>
+        <v>163567.7084837288</v>
       </c>
       <c r="AE3" t="n">
-        <v>190998.7336633025</v>
+        <v>223800.5548453485</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.083910458601365e-06</v>
+        <v>7.663017849449077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.782552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>172770.0825909371</v>
+        <v>202441.3439970242</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6633924937393</v>
+        <v>142.4664617013957</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.3604886692688</v>
+        <v>194.9288980764678</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8650315050956</v>
+        <v>176.3251576285316</v>
       </c>
       <c r="AD4" t="n">
-        <v>118663.3924937393</v>
+        <v>142466.4617013957</v>
       </c>
       <c r="AE4" t="n">
-        <v>162360.4886692688</v>
+        <v>194928.8980764679</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.529253701054571e-06</v>
+        <v>8.49865644893473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>146865.0315050956</v>
+        <v>176325.1576285316</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.0512137006191</v>
+        <v>142.8542829082756</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.8911227539856</v>
+        <v>195.4595321611847</v>
       </c>
       <c r="AC5" t="n">
-        <v>147.3450226175169</v>
+        <v>176.8051487409529</v>
       </c>
       <c r="AD5" t="n">
-        <v>119051.2137006191</v>
+        <v>142854.2829082756</v>
       </c>
       <c r="AE5" t="n">
-        <v>162891.1227539856</v>
+        <v>195459.5321611847</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.528684329766543e-06</v>
+        <v>8.497588085074319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.409830729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>147345.0226175169</v>
+        <v>176805.1487409529</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.4740967755473</v>
+        <v>153.9546756652472</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.0474388515865</v>
+        <v>210.6475792460317</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.5320341612452</v>
+        <v>190.5436699285849</v>
       </c>
       <c r="AD2" t="n">
-        <v>126474.0967755473</v>
+        <v>153954.6756652471</v>
       </c>
       <c r="AE2" t="n">
-        <v>173047.4388515865</v>
+        <v>210647.5792460316</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.407955494029431e-06</v>
+        <v>8.523038062421228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.823567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>156532.0341612452</v>
+        <v>190543.6699285849</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.856615458367</v>
+        <v>131.4845094070526</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.3106678018966</v>
+        <v>179.9029064578134</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.9652286292717</v>
+        <v>162.7332255608451</v>
       </c>
       <c r="AD2" t="n">
-        <v>109856.615458367</v>
+        <v>131484.5094070526</v>
       </c>
       <c r="AE2" t="n">
-        <v>150310.6678018966</v>
+        <v>179902.9064578134</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.478123173903339e-06</v>
+        <v>9.221724975439243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.798828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>135965.2286292717</v>
+        <v>162733.2255608451</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.9182331431501</v>
+        <v>125.5461270918357</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.1855111352829</v>
+        <v>171.7777497911997</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.6155255111881</v>
+        <v>155.3835224427615</v>
       </c>
       <c r="AD3" t="n">
-        <v>103918.2331431501</v>
+        <v>125546.1270918357</v>
       </c>
       <c r="AE3" t="n">
-        <v>142185.5111352829</v>
+        <v>171777.7497911997</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.669693370359762e-06</v>
+        <v>9.616222312070595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.642578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>128615.5255111881</v>
+        <v>155383.5224427615</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.0835119934244</v>
+        <v>179.5208753049506</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.9285911447584</v>
+        <v>245.6283814941812</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.4161080601364</v>
+        <v>222.1859535060464</v>
       </c>
       <c r="AD2" t="n">
-        <v>157083.5119934244</v>
+        <v>179520.8753049506</v>
       </c>
       <c r="AE2" t="n">
-        <v>214928.5911447584</v>
+        <v>245628.3814941812</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.785720208588288e-06</v>
+        <v>7.500208728910286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.326171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>194416.1080601364</v>
+        <v>222185.9535060464</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4674935523786</v>
+        <v>130.9901082099254</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.4100099263908</v>
+        <v>179.2264449284629</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.2459668738136</v>
+        <v>162.1213245704358</v>
       </c>
       <c r="AD3" t="n">
-        <v>108467.4935523786</v>
+        <v>130990.1082099254</v>
       </c>
       <c r="AE3" t="n">
-        <v>148410.0099263908</v>
+        <v>179226.4449284628</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.655400451068381e-06</v>
+        <v>9.223205407643285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.517252604166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>134245.9668738136</v>
+        <v>162121.3245704358</v>
       </c>
     </row>
   </sheetData>
